--- a/results/KNN/375Hz_2classes_normalized/res_hyperopt.xlsx
+++ b/results/KNN/375Hz_2classes_normalized/res_hyperopt.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'leaf_size': 77, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 17, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'leaf_size': 16, 'n_neighbors': 3, 'p': 1}</t>
+          <t>{'leaf_size': 28, 'n_neighbors': 3, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -507,14 +507,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'leaf_size': 45, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 5, 'n_neighbors': 3, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'leaf_size': 93, 'n_neighbors': 3, 'p': 1}</t>
+          <t>{'leaf_size': 78, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'leaf_size': 53, 'n_neighbors': 8, 'p': 1}</t>
+          <t>{'leaf_size': 72, 'n_neighbors': 8, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'leaf_size': 22, 'n_neighbors': 24, 'p': 2}</t>
+          <t>{'leaf_size': 50, 'n_neighbors': 24, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'leaf_size': 48, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 27, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'leaf_size': 41, 'n_neighbors': 7, 'p': 1}</t>
+          <t>{'leaf_size': 5, 'n_neighbors': 7, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'leaf_size': 11, 'n_neighbors': 3, 'p': 1}</t>
+          <t>{'leaf_size': 81, 'n_neighbors': 3, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'leaf_size': 21, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 43, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'leaf_size': 75, 'n_neighbors': 3, 'p': 1}</t>
+          <t>{'leaf_size': 71, 'n_neighbors': 3, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'leaf_size': 59, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 50, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'leaf_size': 9, 'n_neighbors': 3, 'p': 1}</t>
+          <t>{'leaf_size': 73, 'n_neighbors': 3, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -738,14 +738,14 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'leaf_size': 76, 'n_neighbors': 5, 'p': 1}</t>
+          <t>{'leaf_size': 33, 'n_neighbors': 19, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'leaf_size': 30, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 28, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
